--- a/exemples/cryptoPancakeswapBase.xlsx
+++ b/exemples/cryptoPancakeswapBase.xlsx
@@ -220,60 +220,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,10 +464,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="A5:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,8 +545,8 @@
       <c r="C2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
+      <c r="D2" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -556,80 +560,77 @@
       <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">MIN(A4:A9999)</f>
         <v>999</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="7" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
         <v>999</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="6" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
         <v>1198.8</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="7" t="n">
         <f aca="false">SUM(B4:B9999)</f>
         <v>1E-013</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="8" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="9" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="12" t="n">
         <v>999</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="12" t="n">
         <v>1E-013</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
